--- a/data/trans_dic/P64D$andando_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P64D$andando_2023-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.3696804109704566</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.302763978035494</v>
+        <v>0.3027639780354939</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2077013483476159</v>
+        <v>0.2070384094291454</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3204710889097268</v>
+        <v>0.3176369514936325</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2668654220941355</v>
+        <v>0.2706852368764677</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3046842141683601</v>
+        <v>0.3022931802875747</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4210533528977588</v>
+        <v>0.4204512785850572</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3381413922673389</v>
+        <v>0.3404785934393795</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.414501089560683</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3123583948814795</v>
+        <v>0.3123583948814796</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2027056669370408</v>
+        <v>0.2024601823625768</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3720002085386424</v>
+        <v>0.371019583850647</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2814100705914283</v>
+        <v>0.2857929379114041</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2806348590003276</v>
+        <v>0.2829709060247479</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4595755468465835</v>
+        <v>0.4559135232986505</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3448129541108151</v>
+        <v>0.344439795309801</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1471888524095887</v>
+        <v>0.1471888524095886</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.2687464663566076</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1114798347374844</v>
+        <v>0.1093592730756965</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2273089426887463</v>
+        <v>0.2254070637540141</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1720891592696369</v>
+        <v>0.1727457601581083</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1946286044522798</v>
+        <v>0.1924817821812441</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3140120487700387</v>
+        <v>0.3142130148437968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2349703125546503</v>
+        <v>0.2315720716958194</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.2491669843376107</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3833223449414659</v>
+        <v>0.383322344941466</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3114723828011281</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2123965973661179</v>
+        <v>0.2121342382721703</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3430367675131553</v>
+        <v>0.3436601763933987</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.281238771557552</v>
+        <v>0.2835029297264042</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2945328748852426</v>
+        <v>0.292168557781452</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4240618617537699</v>
+        <v>0.4245342757503457</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.339378704734819</v>
+        <v>0.3417033437374349</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.3645063182706986</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2860027964840825</v>
+        <v>0.2860027964840826</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2055243117350834</v>
+        <v>0.2037463681294059</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3421903674947679</v>
+        <v>0.3405130677230654</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2719109462146191</v>
+        <v>0.2710608481439207</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2490656408256705</v>
+        <v>0.24786466973608</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3869504279306096</v>
+        <v>0.3862363767893331</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3020165496128742</v>
+        <v>0.3019849719331005</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>75952</v>
+        <v>75710</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>88618</v>
+        <v>87835</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>171383</v>
+        <v>173836</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>111417</v>
+        <v>110543</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>116432</v>
+        <v>116265</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>217156</v>
+        <v>218657</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>125851</v>
+        <v>125699</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>164171</v>
+        <v>163738</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>298906</v>
+        <v>303562</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>174234</v>
+        <v>175684</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>202819</v>
+        <v>201203</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>366251</v>
+        <v>365855</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>45973</v>
+        <v>45099</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>75494</v>
+        <v>74862</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>128122</v>
+        <v>128611</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>80263</v>
+        <v>79378</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>104290</v>
+        <v>104357</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>174938</v>
+        <v>172408</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>108166</v>
+        <v>108033</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>151490</v>
+        <v>151765</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>267424</v>
+        <v>269577</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>149995</v>
+        <v>148791</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>187272</v>
+        <v>187480</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>322708</v>
+        <v>324918</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>392180</v>
+        <v>388787</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>510404</v>
+        <v>507902</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>924435</v>
+        <v>921545</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>475265</v>
+        <v>472973</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>577167</v>
+        <v>576102</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1026787</v>
+        <v>1026680</v>
       </c>
     </row>
     <row r="24">
